--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T10:57:32+00:00</t>
+    <t>2025-01-02T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1584,9 +1584,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>description : Description fonctionnelle de la boîte aux lettres.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:description.id</t>
   </si>
   <si>
@@ -1623,9 +1620,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>serviceRattachement : Nom et description du service de rattachement de l’utilisateur de la boîte aux lettres dans l’organisation.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:service.id</t>
   </si>
   <si>
@@ -1662,10 +1656,6 @@
     <t>digitization</t>
   </si>
   <si>
-    <t>dematerialisation : Indicateur d’acceptation de la dématérialisation (ou « Zéro papier »). - "true" : Dématérialisation acceptée 
-- "false" : Dématérialisation refusée.</t>
-  </si>
-  <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:digitization.id</t>
   </si>
   <si>
@@ -1682,10 +1672,6 @@
   </si>
   <si>
     <t>listeRouge</t>
-  </si>
-  <si>
-    <t>listeRouge : Indicateur liste rouge. "true": Boîte aux lettres en liste rouge;
-"false": La boîte aux lettres peut être publiée</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:listeRouge.id</t>
@@ -11762,7 +11748,7 @@
         <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>204</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>205</v>
@@ -11848,7 +11834,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>494</v>
@@ -11963,7 +11949,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>496</v>
@@ -12078,7 +12064,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>498</v>
@@ -12195,7 +12181,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>500</v>
@@ -12310,13 +12296,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>468</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>78</v>
@@ -12427,7 +12413,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>494</v>
@@ -12542,7 +12528,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>496</v>
@@ -12657,7 +12643,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>498</v>
@@ -12700,7 +12686,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>78</v>
@@ -12774,7 +12760,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>500</v>
@@ -12889,13 +12875,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>468</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>78</v>
@@ -12920,7 +12906,7 @@
         <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>204</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>205</v>
@@ -13006,7 +12992,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>494</v>
@@ -13121,7 +13107,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>496</v>
@@ -13236,7 +13222,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>498</v>
@@ -13279,7 +13265,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>78</v>
@@ -13353,7 +13339,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>500</v>
@@ -13468,13 +13454,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>468</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -13585,7 +13571,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>494</v>
@@ -13700,7 +13686,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>496</v>
@@ -13815,7 +13801,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>498</v>
@@ -13858,7 +13844,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13932,7 +13918,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>500</v>
@@ -14047,13 +14033,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>468</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -14078,7 +14064,7 @@
         <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>530</v>
+        <v>204</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>205</v>
@@ -14164,7 +14150,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>494</v>
@@ -14279,7 +14265,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>496</v>
@@ -14394,7 +14380,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>498</v>
@@ -14437,7 +14423,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>78</v>
@@ -14511,7 +14497,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>500</v>
@@ -14626,13 +14612,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>468</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>78</v>
@@ -14657,7 +14643,7 @@
         <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>537</v>
+        <v>204</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>205</v>
@@ -14743,7 +14729,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>494</v>
@@ -14858,7 +14844,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>496</v>
@@ -14973,7 +14959,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>498</v>
@@ -15016,7 +15002,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15090,7 +15076,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>500</v>
@@ -15205,7 +15191,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>470</v>
@@ -15248,7 +15234,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15322,7 +15308,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>477</v>
@@ -15348,7 +15334,7 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L112" t="s" s="2">
         <v>478</v>
@@ -15437,10 +15423,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15466,10 +15452,10 @@
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15481,7 +15467,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15499,10 +15485,10 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15520,7 +15506,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15529,7 +15515,7 @@
         <v>90</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -15538,13 +15524,13 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15552,10 +15538,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15581,16 +15567,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15639,7 +15625,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15657,10 +15643,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>294</v>
@@ -15671,10 +15657,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15700,16 +15686,16 @@
         <v>179</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15737,10 +15723,10 @@
         <v>257</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15758,7 +15744,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15776,13 +15762,13 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15790,10 +15776,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15816,16 +15802,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15875,7 +15861,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15907,10 +15893,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15936,10 +15922,10 @@
         <v>297</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15990,7 +15976,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16011,7 +15997,7 @@
         <v>202</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>303</v>
@@ -16022,10 +16008,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16048,16 +16034,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16107,7 +16093,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16128,7 +16114,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16139,10 +16125,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16254,10 +16240,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16371,14 +16357,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16400,10 +16386,10 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>114</v>
@@ -16458,7 +16444,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16490,10 +16476,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16519,10 +16505,10 @@
         <v>179</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16552,10 +16538,10 @@
         <v>257</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16573,7 +16559,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16594,7 +16580,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16605,10 +16591,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16634,10 +16620,10 @@
         <v>328</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16688,7 +16674,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16709,7 +16695,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16720,10 +16706,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16746,16 +16732,16 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16805,7 +16791,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16826,7 +16812,7 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16837,10 +16823,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16863,16 +16849,16 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16922,7 +16908,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16943,7 +16929,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16954,10 +16940,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16980,13 +16966,13 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17037,7 +17023,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17058,7 +17044,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17069,10 +17055,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17184,10 +17170,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17301,14 +17287,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17330,10 +17316,10 @@
         <v>111</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>114</v>
@@ -17388,7 +17374,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17420,10 +17406,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17449,10 +17435,10 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17503,7 +17489,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>90</v>
@@ -17535,10 +17521,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17564,10 +17550,10 @@
         <v>297</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17618,7 +17604,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17639,7 +17625,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17650,10 +17636,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17679,10 +17665,10 @@
         <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17733,7 +17719,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17754,7 +17740,7 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17765,10 +17751,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17791,17 +17777,17 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17850,7 +17836,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>

--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:56:45+00:00</t>
+    <t>2025-01-03T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1392,7 +1392,7 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
